--- a/pandas/exercise/historical_files/suppliers.xlsx
+++ b/pandas/exercise/historical_files/suppliers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clinton\Desktop\screenshots\historical_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A0501660\Work\data_analysis\pandas\exercise\historical_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="suppliers_2013" sheetId="1" r:id="rId1"/>
     <sheet name="suppliers_2014" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>Item Number</t>
   </si>
@@ -79,21 +79,58 @@
   </si>
   <si>
     <t>Supplier C</t>
+  </si>
+  <si>
+    <t>Items 1</t>
+  </si>
+  <si>
+    <t>Items 1 Service</t>
+  </si>
+  <si>
+    <t>Items 2</t>
+  </si>
+  <si>
+    <t>Items 2 Maintenance</t>
+  </si>
+  <si>
+    <t>Items 3</t>
+  </si>
+  <si>
+    <t>Items 4</t>
+  </si>
+  <si>
+    <t>Items 5</t>
+  </si>
+  <si>
+    <t>Items 5 Service</t>
+  </si>
+  <si>
+    <t>Items 6</t>
+  </si>
+  <si>
+    <t>Items 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -120,10 +157,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -139,7 +176,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -403,17 +440,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,12 +466,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1234</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -444,12 +480,12 @@
         <v>1100</v>
       </c>
       <c r="E2" s="1">
-        <v>41427</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -458,15 +494,15 @@
         <v>600</v>
       </c>
       <c r="E3" s="1">
-        <v>41428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2345</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -475,12 +511,12 @@
         <v>2300</v>
       </c>
       <c r="E4" s="1">
-        <v>41442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -489,15 +525,15 @@
         <v>1000</v>
       </c>
       <c r="E5" s="1">
-        <v>41455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3456</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -506,15 +542,15 @@
         <v>950</v>
       </c>
       <c r="E6" s="1">
-        <v>41458</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4567</v>
+        <v>4444</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -523,15 +559,15 @@
         <v>1300</v>
       </c>
       <c r="E7" s="1">
-        <v>41459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5678</v>
+        <v>6666</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -540,12 +576,12 @@
         <v>1050</v>
       </c>
       <c r="E8" s="1">
-        <v>41466</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -554,15 +590,15 @@
         <v>550</v>
       </c>
       <c r="E9" s="1">
-        <v>41470</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>6789</v>
+        <v>7777</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -571,15 +607,15 @@
         <v>1175</v>
       </c>
       <c r="E10" s="1">
-        <v>41478</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7890</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -588,10 +624,11 @@
         <v>1200</v>
       </c>
       <c r="E11" s="1">
-        <v>41482</v>
+        <v>42212</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -603,15 +640,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1234</v>
       </c>
@@ -645,7 +682,7 @@
         <v>41792</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -659,7 +696,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2345</v>
       </c>
@@ -676,7 +713,7 @@
         <v>41807</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -690,7 +727,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3456</v>
       </c>
@@ -707,7 +744,7 @@
         <v>41823</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4567</v>
       </c>
@@ -724,7 +761,7 @@
         <v>41824</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5678</v>
       </c>
@@ -741,7 +778,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -755,7 +792,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6789</v>
       </c>
@@ -772,7 +809,7 @@
         <v>41843</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7890</v>
       </c>
@@ -790,6 +827,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>